--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
   </si>
   <si>
     <t>Level</t>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>Cause of death</t>
+  </si>
+  <si>
+    <t>HIV-DATE-RECENCY-TEST</t>
+  </si>
+  <si>
+    <t>HIV date recency rest</t>
+  </si>
+  <si>
+    <t>HIV-ACTUAL-RECENCY-TEST-RESULT</t>
+  </si>
+  <si>
+    <t>HIV actual recency test result</t>
+  </si>
+  <si>
+    <t>VL-MOST-RECENT-TEST-DATE</t>
+  </si>
+  <si>
+    <t>VL most recent test date</t>
+  </si>
+  <si>
+    <t>VL-MOST-RECENT-TEST-RESULT</t>
+  </si>
+  <si>
+    <t>VL most recent test result</t>
   </si>
 </sst>
 </file>
@@ -466,7 +490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,6 +570,54 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>VL most recent test result</t>
+  </si>
+  <si>
+    <t>DATE-TESTED-FOR-HIV</t>
+  </si>
+  <si>
+    <t>Date tested for HIV</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +624,18 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-obs-codes.xlsx
+++ b/CodeSystem-cs-hiv-obs-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
